--- a/output/phones.xlsx
+++ b/output/phones.xlsx
@@ -1141,7 +1141,11 @@
           <t>6443599-K</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr"/>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="C36" t="inlineStr">
         <is>
           <t>INVALIDO</t>
@@ -1157,7 +1161,11 @@
           <t>21036003-4</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr"/>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="C37" t="inlineStr">
         <is>
           <t>INVALIDO</t>
@@ -1173,7 +1181,11 @@
           <t>7089873-K</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr"/>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="C38" t="inlineStr">
         <is>
           <t>INVALIDO</t>
@@ -1189,7 +1201,11 @@
           <t>40556710-5</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr"/>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="C39" t="inlineStr">
         <is>
           <t>VALIDO</t>
@@ -1205,7 +1221,11 @@
           <t>40453449-1</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr"/>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="C40" t="inlineStr">
         <is>
           <t>VALIDO</t>
@@ -1221,7 +1241,11 @@
           <t>49499512-3</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr"/>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="C41" t="inlineStr">
         <is>
           <t>VALIDO</t>
@@ -1237,7 +1261,11 @@
           <t>44766643-K</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr"/>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="C42" t="inlineStr">
         <is>
           <t>VALIDO</t>
@@ -1253,7 +1281,11 @@
           <t>14107232-3</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr"/>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="C43" t="inlineStr">
         <is>
           <t>VALIDO</t>
@@ -1269,7 +1301,11 @@
           <t>11535398-5</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr"/>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="C44" t="inlineStr">
         <is>
           <t>INVALIDO</t>
@@ -1285,7 +1321,11 @@
           <t>44808392-6</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr"/>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="C45" t="inlineStr">
         <is>
           <t>VALIDO</t>
@@ -1301,7 +1341,11 @@
           <t>14845161-3</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr"/>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="C46" t="inlineStr">
         <is>
           <t>VALIDO</t>
@@ -1317,7 +1361,11 @@
           <t>7500259-9</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr"/>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="C47" t="inlineStr">
         <is>
           <t>VALIDO</t>
@@ -1333,7 +1381,11 @@
           <t>38153029-9</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr"/>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="C48" t="inlineStr">
         <is>
           <t>INVALIDO</t>
@@ -1349,7 +1401,11 @@
           <t>36408053-0</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr"/>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="C49" t="inlineStr">
         <is>
           <t>INVALIDO</t>
@@ -1365,7 +1421,11 @@
           <t>11229186-5</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr"/>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="C50" t="inlineStr">
         <is>
           <t>VALIDO</t>
@@ -1381,7 +1441,11 @@
           <t>50486726-9</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr"/>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="C51" t="inlineStr">
         <is>
           <t>INVALIDO</t>
@@ -2217,9 +2281,19 @@
           <t>47128577-3</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr"/>
-      <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr"/>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -2227,9 +2301,19 @@
           <t>15224127-5</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr"/>
-      <c r="C94" t="inlineStr"/>
-      <c r="D94" t="inlineStr"/>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -2237,9 +2321,19 @@
           <t>22122985-1</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr"/>
-      <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr"/>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -2247,9 +2341,19 @@
           <t>48825804-4</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr"/>
-      <c r="C96" t="inlineStr"/>
-      <c r="D96" t="inlineStr"/>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -2257,9 +2361,19 @@
           <t>7791076-K</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr"/>
-      <c r="C97" t="inlineStr"/>
-      <c r="D97" t="inlineStr"/>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -2267,9 +2381,19 @@
           <t>9664417-5</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr"/>
-      <c r="C98" t="inlineStr"/>
-      <c r="D98" t="inlineStr"/>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -2277,9 +2401,19 @@
           <t>37732660-1</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr"/>
-      <c r="C99" t="inlineStr"/>
-      <c r="D99" t="inlineStr"/>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -2287,9 +2421,19 @@
           <t>38062614-4</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr"/>
-      <c r="C100" t="inlineStr"/>
-      <c r="D100" t="inlineStr"/>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -2297,9 +2441,19 @@
           <t>34084266-9</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr"/>
-      <c r="C101" t="inlineStr"/>
-      <c r="D101" t="inlineStr"/>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -2307,9 +2461,19 @@
           <t>43684610-K</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr"/>
-      <c r="C102" t="inlineStr"/>
-      <c r="D102" t="inlineStr"/>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -2317,9 +2481,19 @@
           <t>45565314-2</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr"/>
-      <c r="C103" t="inlineStr"/>
-      <c r="D103" t="inlineStr"/>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -3047,7 +3221,11 @@
           <t>14664696-4</t>
         </is>
       </c>
-      <c r="B140" t="inlineStr"/>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="C140" t="inlineStr">
         <is>
           <t>INVALIDO</t>
@@ -3063,7 +3241,11 @@
           <t>20912743-1</t>
         </is>
       </c>
-      <c r="B141" t="inlineStr"/>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="C141" t="inlineStr">
         <is>
           <t>VALIDO</t>
@@ -3079,7 +3261,11 @@
           <t>9239835-8</t>
         </is>
       </c>
-      <c r="B142" t="inlineStr"/>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="C142" t="inlineStr">
         <is>
           <t>VALIDO</t>
@@ -3095,7 +3281,11 @@
           <t>26656637-9</t>
         </is>
       </c>
-      <c r="B143" t="inlineStr"/>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="C143" t="inlineStr">
         <is>
           <t>VALIDO</t>
@@ -3111,7 +3301,11 @@
           <t>50379828-K</t>
         </is>
       </c>
-      <c r="B144" t="inlineStr"/>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="C144" t="inlineStr">
         <is>
           <t>VALIDO</t>
@@ -3127,7 +3321,11 @@
           <t>23917593-7</t>
         </is>
       </c>
-      <c r="B145" t="inlineStr"/>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="C145" t="inlineStr">
         <is>
           <t>INVALIDO</t>
@@ -3143,7 +3341,11 @@
           <t>26236122-5</t>
         </is>
       </c>
-      <c r="B146" t="inlineStr"/>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="C146" t="inlineStr">
         <is>
           <t>VALIDO</t>
@@ -3159,7 +3361,11 @@
           <t>38634519-8</t>
         </is>
       </c>
-      <c r="B147" t="inlineStr"/>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="C147" t="inlineStr">
         <is>
           <t>INVALIDO</t>
@@ -3175,7 +3381,11 @@
           <t>17468687-4</t>
         </is>
       </c>
-      <c r="B148" t="inlineStr"/>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="C148" t="inlineStr">
         <is>
           <t>INVALIDO</t>
@@ -3191,7 +3401,11 @@
           <t>35042400-8</t>
         </is>
       </c>
-      <c r="B149" t="inlineStr"/>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="C149" t="inlineStr">
         <is>
           <t>VALIDO</t>
@@ -3207,7 +3421,11 @@
           <t>36212257-0</t>
         </is>
       </c>
-      <c r="B150" t="inlineStr"/>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="C150" t="inlineStr">
         <is>
           <t>VALIDO</t>
@@ -3223,7 +3441,11 @@
           <t>17489326-8</t>
         </is>
       </c>
-      <c r="B151" t="inlineStr"/>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="C151" t="inlineStr">
         <is>
           <t>VALIDO</t>
@@ -3239,7 +3461,11 @@
           <t>22296384-2</t>
         </is>
       </c>
-      <c r="B152" t="inlineStr"/>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="C152" t="inlineStr">
         <is>
           <t>INVALIDO</t>
@@ -3255,7 +3481,11 @@
           <t>11732697-7</t>
         </is>
       </c>
-      <c r="B153" t="inlineStr"/>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="C153" t="inlineStr">
         <is>
           <t>VALIDO</t>
@@ -3271,7 +3501,11 @@
           <t>48815098-7</t>
         </is>
       </c>
-      <c r="B154" t="inlineStr"/>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="C154" t="inlineStr">
         <is>
           <t>INVALIDO</t>
@@ -3287,7 +3521,11 @@
           <t>49977411-7</t>
         </is>
       </c>
-      <c r="B155" t="inlineStr"/>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="C155" t="inlineStr">
         <is>
           <t>INVALIDO</t>
@@ -11943,9 +12181,19 @@
           <t>43451887-3</t>
         </is>
       </c>
-      <c r="B588" t="inlineStr"/>
-      <c r="C588" t="inlineStr"/>
-      <c r="D588" t="inlineStr"/>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C588" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D588" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
@@ -11953,9 +12201,19 @@
           <t>32571740-8</t>
         </is>
       </c>
-      <c r="B589" t="inlineStr"/>
-      <c r="C589" t="inlineStr"/>
-      <c r="D589" t="inlineStr"/>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C589" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D589" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
@@ -11963,9 +12221,19 @@
           <t>25667290-1</t>
         </is>
       </c>
-      <c r="B590" t="inlineStr"/>
-      <c r="C590" t="inlineStr"/>
-      <c r="D590" t="inlineStr"/>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C590" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D590" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
@@ -11973,9 +12241,19 @@
           <t>35815242-2</t>
         </is>
       </c>
-      <c r="B591" t="inlineStr"/>
-      <c r="C591" t="inlineStr"/>
-      <c r="D591" t="inlineStr"/>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C591" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D591" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
@@ -12163,7 +12441,11 @@
           <t>50346472-1</t>
         </is>
       </c>
-      <c r="B601" t="inlineStr"/>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="C601" t="inlineStr">
         <is>
           <t>VALIDO</t>
